--- a/SpotifyClone.xlsx
+++ b/SpotifyClone.xlsx
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="str">
-        <v>Peter Strong; Walter Phoenix;</v>
+        <v>Peter Strong; Walter Phoenix</v>
       </c>
     </row>
     <row r="5">
